--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1470.xlsx
@@ -357,7 +357,7 @@
         <v>2.28621864858413</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.394044219364248</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1470.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.257437129175263</v>
+        <v>1.146576046943665</v>
       </c>
       <c r="B1">
-        <v>1.573431203664875</v>
+        <v>3.463815450668335</v>
       </c>
       <c r="C1">
-        <v>2.28621864858413</v>
+        <v>3.452594518661499</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.860114812850952</v>
       </c>
       <c r="E1">
-        <v>1.394044219364248</v>
+        <v>1.130586504936218</v>
       </c>
     </row>
   </sheetData>
